--- a/xlsx/塞内加尔_intext.xlsx
+++ b/xlsx/塞内加尔_intext.xlsx
@@ -15,2229 +15,2187 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="727">
   <si>
     <t>塞内加尔</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%8A%A0%E7%88%BE</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>塞内加尔国旗</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_塞内加尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94%E5%9B%BD%E5%BE%BD</t>
+  </si>
+  <si>
+    <t>塞内加尔国徽</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A0%BC%E8%A8%80%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家格言列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>法语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
+  </si>
+  <si>
+    <t>国歌</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%B9%E8%B5%B7%E7%A7%91%E6%8B%89%E7%90%B4%EF%BC%8C%E6%95%B2%E8%B5%B7%E5%B7%B4%E6%8B%89%E9%A3%8E</t>
+  </si>
+  <si>
+    <t>弹起科拉琴，敲起巴拉风</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家面积列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
+  </si>
+  <si>
+    <t>首都</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%94%E5%96%80%E7%88%BE</t>
+  </si>
+  <si>
+    <t>达喀尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
+  </si>
+  <si>
+    <t>时区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC</t>
+  </si>
+  <si>
+    <t>UTC</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC%2B0</t>
+  </si>
+  <si>
+    <t>UTC+0</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家人口列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
+  </si>
+  <si>
+    <t>2016年</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家人口密度列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
+  </si>
+  <si>
+    <t>官方语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
+  </si>
+  <si>
+    <t>官方文字</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
+  </si>
+  <si>
+    <t>政治体制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
+  </si>
+  <si>
+    <t>半总统制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
+  </si>
+  <si>
+    <t>国家元首</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>塞内加尔总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%9F%BA%C2%B7%E8%90%A8%E5%8B%92</t>
+  </si>
+  <si>
+    <t>麦基·萨勒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
+  </si>
+  <si>
+    <t>政府首脑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94%E6%80%BB%E7%90%86</t>
+  </si>
+  <si>
+    <t>塞内加尔总理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
+  </si>
+  <si>
+    <t>国内生产总值</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
+  </si>
+  <si>
+    <t>购买力平价</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
+  </si>
+  <si>
+    <t>人类发展指数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2012%E5%B9%B4</t>
+  </si>
+  <si>
+    <t>2012年</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>中央银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9D%9E%E5%9C%8B%E5%AE%B6%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>西非国家中央银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9D%9E%E6%B3%95%E9%83%8E</t>
+  </si>
+  <si>
+    <t>西非法郎</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
+  </si>
+  <si>
+    <t>ISO 3166-1</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
+  </si>
+  <si>
+    <t>国际域名缩写</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/.sn</t>
+  </si>
+  <si>
+    <t>.sn</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国际电话区号列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9D%9E</t>
+  </si>
+  <si>
+    <t>西非</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>塞内加尔河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E5%96%80%E5%B0%94</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>大西洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>毛里塔尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C</t>
+  </si>
+  <si>
+    <t>马里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>几内亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A%E6%AF%94%E7%BB%8D</t>
+  </si>
+  <si>
+    <t>几内亚比绍</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%88%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>冈比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92</t>
+  </si>
+  <si>
+    <t>佛得角</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>塞内加尔历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99</t>
+  </si>
+  <si>
+    <t>伊斯兰教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%96%AF%E6%9E%97</t>
+  </si>
+  <si>
+    <t>穆斯林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%9E%E8%A5%BF%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>法属西非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E8%81%94%E9%82%A6</t>
+  </si>
+  <si>
+    <t>马里联邦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%A5%A5%E6%B3%A2%E5%BE%B7%C2%B7%E5%A1%9E%E8%BE%BE%E5%B0%94%C2%B7%E6%A1%91%E6%88%88%E5%B0%94</t>
+  </si>
+  <si>
+    <t>利奥波德·塞达尔·桑戈尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%B2%A1%E6%AF%94%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>塞内冈比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%96%A9%E8%8A%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>卡萨芒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8D%9C%E6%9D%9C%E6%8B%89%E8%80%B6%C2%B7%E7%93%A6%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>阿卜杜拉耶·瓦德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%8A%A0%E7%88%BE%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>塞内加尔地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%88%E6%AF%94%E4%BA%9A%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>冈比亚河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%96%A9%E8%8A%92%E6%96%AF%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>卡萨芒斯河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92%E5%8D%8A%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>佛得角半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E4%B9%BE%E6%BF%95%E5%AD%A3%E6%B0%A3%E5%80%99</t>
+  </si>
+  <si>
+    <t>热带干湿季气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%8A%A0%E7%88%BE%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
+  </si>
+  <si>
+    <t>塞内加尔行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>行政区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9C%81</t>
+  </si>
+  <si>
+    <t>省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF</t>
+  </si>
+  <si>
+    <t>县</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E5%96%80%E5%B0%94%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>达喀尔区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%85%E5%B0%94%E8%B4%9D%E5%8B%92%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>久尔贝勒区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%92%82%E5%85%8B%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>法蒂克区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%83%E6%8B%89%E5%85%8B%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>考拉克区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%88%BE%E9%81%94%E5%8D%80</t>
+  </si>
+  <si>
+    <t>科尔达区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%8A%A0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>卢加区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%A1%94%E5%A7%86%E5%8D%80</t>
+  </si>
+  <si>
+    <t>马塔姆区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E5%8D%80</t>
+  </si>
+  <si>
+    <t>圣路易区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B7%B4%E6%98%86%E9%81%94%E5%8D%80</t>
+  </si>
+  <si>
+    <t>坦巴昆达区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E6%96%AF%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>捷斯区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%8E%E9%87%91%E7%BB%8D%E5%B0%94%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>济金绍尔区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%99%A2%E5%88%B6</t>
+  </si>
+  <si>
+    <t>一院制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A4%AB%E6%9E%97%E5%8D%80</t>
+  </si>
+  <si>
+    <t>卡夫林区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E7%94%9F</t>
+  </si>
+  <si>
+    <t>花生</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A3%89%E8%8A%B1</t>
+  </si>
+  <si>
+    <t>棉花</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A8%BB%E7%B1%B3</t>
+  </si>
+  <si>
+    <t>稻米</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A3%B7</t>
+  </si>
+  <si>
+    <t>磷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9D%9E%E5%9B%BD%E5%AE%B6%E7%BB%8F%E6%B5%8E%E5%85%B1%E5%90%8C%E4%BD%93</t>
+  </si>
+  <si>
+    <t>西非国家经济共同体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E6%B4%9B%E5%A4%AB%E6%97%8F</t>
+  </si>
+  <si>
+    <t>沃洛夫族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E7%89%A9%E6%95%99</t>
+  </si>
+  <si>
+    <t>拜物教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
+  </si>
+  <si>
+    <t>罗马天主教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/International_Monetary_Fund</t>
+  </si>
+  <si>
+    <t>International Monetary Fund</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:Africa</t>
+  </si>
+  <si>
+    <t>Template talk-Africa</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>北部非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>阿尔及利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
+  </si>
+  <si>
+    <t>埃及</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>利比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
+  </si>
+  <si>
+    <t>摩洛哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏丹共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>突尼西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>西部非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
+  </si>
+  <si>
+    <t>贝宁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>布吉纳法索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
+  </si>
+  <si>
+    <t>乍得</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
+  </si>
+  <si>
+    <t>科特迪瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>加纳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>几内亚比索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>利比里亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
+  </si>
+  <si>
+    <t>尼日尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>奈及利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%88%A9%E6%98%82</t>
+  </si>
+  <si>
+    <t>塞拉利昂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
+  </si>
+  <si>
+    <t>多哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>中部非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
+  </si>
+  <si>
+    <t>喀麦隆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>中非共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>赤道几内亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%93%AC</t>
+  </si>
+  <si>
+    <t>加蓬</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>刚果共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>刚果民主共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
+  </si>
+  <si>
+    <t>圣多美和普林西比</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南部非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
+  </si>
+  <si>
+    <t>安哥拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%9C%AD%E9%82%A3</t>
+  </si>
+  <si>
+    <t>波札那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
+  </si>
+  <si>
+    <t>葛摩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E7%B4%A2%E6%89%98</t>
+  </si>
+  <si>
+    <t>莱索托</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%BE%BE%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>马达加斯加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%8B%89%E7%BB%B4</t>
+  </si>
+  <si>
+    <t>马拉维</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
+  </si>
+  <si>
+    <t>莫桑比克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B1%B3%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>纳米比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A8%81%E5%A3%AB%E5%85%B0</t>
+  </si>
+  <si>
+    <t>斯威士兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
+  </si>
+  <si>
+    <t>南非</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%9E%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>赞比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%A5%E5%B7%B4%E5%B8%83%E9%9F%A6</t>
+  </si>
+  <si>
+    <t>津巴布韦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>东部非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>蒲隆地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E6%8F%90</t>
+  </si>
+  <si>
+    <t>吉布提</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%AB%8B%E7%89%B9%E9%87%8C%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>厄立特里亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%9E%E4%BF%84%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>埃塞俄比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>肯尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%97%BA%E8%BE%BE</t>
+  </si>
+  <si>
+    <t>卢旺达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%88%8C%E5%B0%94</t>
+  </si>
+  <si>
+    <t>塞舌尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C</t>
+  </si>
+  <si>
+    <t>索马里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>南苏丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>坦桑尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B9%B2%E8%BE%BE</t>
+  </si>
+  <si>
+    <t>乌干达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E8%A3%98%E6%96%AF</t>
+  </si>
+  <si>
+    <t>毛里裘斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>英属印度洋领地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%82%A3%E5%88%A9%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>加那利群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E8%BE%BE</t>
+  </si>
+  <si>
+    <t>休达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%88%A9%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>梅利利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89</t>
+  </si>
+  <si>
+    <t>马德拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BA%A6%E7%89%B9</t>
+  </si>
+  <si>
+    <t>马约特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%95%99%E5%B0%BC%E6%B1%AA</t>
+  </si>
+  <si>
+    <t>留尼汪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B5%AB%E5%8B%92%E6%8B%BF</t>
+  </si>
+  <si>
+    <t>圣赫勒拿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C%E5%85%B0</t>
+  </si>
+  <si>
+    <t>索马里兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%92%92%E5%93%88%E6%8B%89</t>
+  </si>
+  <si>
+    <t>西撒哈拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%BD%97%E5%B7%B4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>欧罗巴岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%B4%9B%E9%87%8C%E5%8E%84%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>格洛里厄斯群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%83%A1%E5%AE%89%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>新胡安岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%BD%97%E5%A7%86%E5%85%B0%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>特罗姆兰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%80%9F%E5%B0%94%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>亚速尔群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%94%BF%E5%8D%80%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>世界政区索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>亚洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南极洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>大洋洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国首都列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>非洲联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%8D%97</t>
+  </si>
+  <si>
+    <t>贝南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A5%E9%9A%86</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%BE%B7%E8%A7%92</t>
+  </si>
+  <si>
+    <t>维德角</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>查德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E7%89%99%E6%B5%B7%E5%B2%B8</t>
+  </si>
+  <si>
+    <t>象牙海岸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>吉布地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%88%A9%E5%9E%82%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>厄利垂亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E5%8C%B9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>衣索匹亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%BD%AD</t>
+  </si>
+  <si>
+    <t>加彭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%98%E6%AF%94%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>甘比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%A6%E7%B4%8D</t>
+  </si>
+  <si>
+    <t>迦纳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>肯亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E7%B4%A2%E6%89%98</t>
+  </si>
+  <si>
+    <t>赖索托</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E6%AF%94%E7%91%9E%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>赖比瑞亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%81%94%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E5%A8%81</t>
+  </si>
+  <si>
+    <t>马拉威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>马里共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E5%88%A9%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>毛利塔尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E9%87%8C%E8%A5%BF%E6%96%AF</t>
+  </si>
+  <si>
+    <t>模里西斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E4%B8%89%E6%AF%94%E5%85%8B</t>
+  </si>
+  <si>
+    <t>莫三比克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B1%B3%E6%AF%94%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5</t>
+  </si>
+  <si>
+    <t>尼日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%92%92%E6%8B%89%E5%A8%81%E9%98%BF%E6%8B%89%E4%BC%AF%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>撒拉威阿拉伯民主共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A4%9A%E7%BE%8E%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
+  </si>
+  <si>
+    <t>圣多美普林西比</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B8%AD%E7%88%BE</t>
+  </si>
+  <si>
+    <t>塞席尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>索马利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>苏丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E7%93%A6%E6%BF%9F%E8%98%AD</t>
+  </si>
+  <si>
+    <t>史瓦济兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B9%B2%E9%81%94</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>尚比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81</t>
+  </si>
+  <si>
+    <t>辛巴威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%BB%93%E7%9B%9F%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>不结盟运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
+  </si>
+  <si>
+    <t>阿富汗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E8%BE%BE</t>
+  </si>
+  <si>
+    <t>安提瓜和巴布达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
+  </si>
+  <si>
+    <t>阿塞拜疆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>巴哈马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
+  </si>
+  <si>
+    <t>巴林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>孟加拉国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E5%A4%9A%E6%96%AF</t>
+  </si>
+  <si>
+    <t>巴巴多斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>白俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
+  </si>
+  <si>
+    <t>伯利兹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>不丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>玻利维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
+  </si>
+  <si>
+    <t>汶莱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>布基纳法索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9A%86%E8%BF%AA</t>
+  </si>
+  <si>
+    <t>布隆迪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
+  </si>
+  <si>
+    <t>柬埔寨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
+  </si>
+  <si>
+    <t>智利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>哥伦比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
+  </si>
+  <si>
+    <t>古巴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>朝鲜民主主义人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B</t>
+  </si>
+  <si>
+    <t>多米尼克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>多米尼加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
+  </si>
+  <si>
+    <t>厄瓜多尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>斐济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
+  </si>
+  <si>
+    <t>格林纳达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
+  </si>
+  <si>
+    <t>危地马拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9A%E9%82%A3</t>
+  </si>
+  <si>
+    <t>圭亚那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF</t>
+  </si>
+  <si>
+    <t>洪都拉斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>印度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>印度尼西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
+  </si>
+  <si>
+    <t>伊朗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
+  </si>
+  <si>
+    <t>伊拉克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>牙买加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
+  </si>
+  <si>
+    <t>约旦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
+  </si>
+  <si>
+    <t>科威特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D</t>
+  </si>
+  <si>
+    <t>老挝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
+  </si>
+  <si>
+    <t>黎巴嫩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>马来西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E4%BB%A3%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>马尔代夫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>蒙古国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E7%94%B8</t>
+  </si>
+  <si>
+    <t>缅甸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E5%B0%94</t>
+  </si>
+  <si>
+    <t>尼泊尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
+  </si>
+  <si>
+    <t>尼加拉瓜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>阿曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>巴基斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>巴勒斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>巴拿马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E6%96%B0%E5%87%A0%E5%86%85%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>巴布亚新几内亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
+  </si>
+  <si>
+    <t>秘鲁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
+  </si>
+  <si>
+    <t>菲律宾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
+  </si>
+  <si>
+    <t>卡塔尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
+  </si>
+  <si>
+    <t>圣克里斯多福与尼维斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>圣卢西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%96%87%E6%A3%AE%E7%89%B9%E5%92%8C%E6%A0%BC%E6%9E%97%E7%BA%B3%E4%B8%81%E6%96%AF</t>
+  </si>
+  <si>
+    <t>圣文森特和格林纳丁斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%98%BF%E6%8B%89%E4%BC%AF</t>
+  </si>
+  <si>
+    <t>沙特阿拉伯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
+  </si>
+  <si>
+    <t>新加坡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E5%85%B0%E5%8D%A1</t>
+  </si>
+  <si>
+    <t>斯里兰卡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
+  </si>
+  <si>
+    <t>苏利南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>叙利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>泰国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
+  </si>
+  <si>
+    <t>东帝汶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%AB%8B%E5%B0%BC%E8%BE%BE%E5%92%8C%E5%A4%9A%E5%B7%B4%E5%93%A5</t>
+  </si>
+  <si>
+    <t>特立尼达和多巴哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%93%E6%9B%BC%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>土库曼斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%94%E5%90%88%E9%85%8B%E9%95%BF%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>阿拉伯联合酋长国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%B9%E5%88%AB%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>乌兹别克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9B%BE</t>
+  </si>
+  <si>
+    <t>瓦努阿图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
+  </si>
+  <si>
+    <t>委内瑞拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
+  </si>
+  <si>
+    <t>越南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%97%A8</t>
+  </si>
+  <si>
+    <t>也门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
+  </si>
+  <si>
+    <t>阿根廷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>亚美尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
+  </si>
+  <si>
+    <t>波斯尼亚和黑塞哥维那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>中华人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>哥斯达黎加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>克罗地亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A</t>
+  </si>
+  <si>
+    <t>萨尔瓦多</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>哈萨克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%94%E5%90%89%E6%96%AF%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>吉尔吉斯斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
+  </si>
+  <si>
+    <t>蒙特内哥罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>巴拉圭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>塞尔维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>塔吉克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
+  </si>
+  <si>
+    <t>乌克兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>乌拉圭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>阿拉伯国家联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>伊斯兰合作组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>联合国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>阿尔巴尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%8E%B1</t>
+  </si>
+  <si>
+    <t>文莱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
+  </si>
+  <si>
+    <t>土耳其</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>北赛普勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%B4%9B%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%99%A3%E7%B7%9A</t>
+  </si>
+  <si>
+    <t>莫洛民族解放阵线</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Parliamentary_Union_of_the_OIC_Member_States</t>
+  </si>
+  <si>
+    <t>en-Parliamentary Union of the OIC Member States</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Islamic_Conference_Youth_Forum_for_Dialogue_and_Cooperation</t>
+  </si>
+  <si>
+    <t>en-Islamic Conference Youth Forum for Dialogue and Cooperation</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
+  </si>
+  <si>
+    <t>法语圈国际组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
+  </si>
+  <si>
+    <t>安道尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
+  </si>
+  <si>
+    <t>比利时</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>保加利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
+  </si>
+  <si>
+    <t>希腊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>卢森堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>马其顿共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
+  </si>
+  <si>
+    <t>摩尔多瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%BA%B3%E5%93%A5</t>
+  </si>
+  <si>
+    <t>摩纳哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B</t>
+  </si>
+  <si>
+    <t>新不伦瑞克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B</t>
+  </si>
+  <si>
+    <t>魁北克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>罗马尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>瑞士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6%E6%B3%95%E8%AF%AD%E7%A4%BE%E7%BE%A4</t>
+  </si>
+  <si>
+    <t>比利时法语社群</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>赛普勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>新喀里多尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
+  </si>
+  <si>
+    <t>奥地利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>大韩民国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>爱沙尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>格鲁吉亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
+  </si>
+  <si>
+    <t>匈牙利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
+  </si>
+  <si>
+    <t>科索沃</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>拉脱维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
+  </si>
+  <si>
+    <t>立陶宛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5</t>
+  </si>
+  <si>
+    <t>安大略</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
+  </si>
+  <si>
+    <t>波兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
+  </si>
+  <si>
+    <t>斯洛伐克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>斯洛文尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>多明尼加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
+  </si>
+  <si>
+    <t>捷克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF%C2%B7%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF-%E5%8A%A0%E5%88%A9</t>
+  </si>
+  <si>
+    <t>布特罗斯·布特罗斯-加利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%84%E7%BE%8E%E6%A5%B7</t>
+  </si>
+  <si>
+    <t>庄美楷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD%E5%9B%BD%E5%AE%B6%E5%92%8C%E5%9C%B0%E5%8C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>法语国家和地区列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
+  </si>
+  <si>
+    <t>法语系运动会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%9B%BB%E8%A6%96%E5%9C%8B%E9%9A%9B%E4%BA%94%E5%8F%B0</t>
+  </si>
+  <si>
+    <t>法国电视国际五台</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AF%AD%E5%9B%BD%E5%AE%B6%E5%85%B1%E5%90%8C%E4%BD%93</t>
+  </si>
+  <si>
+    <t>葡萄牙语国家共同体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
+  </si>
+  <si>
+    <t>葡萄牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%AA%9E%E7%B3%BB%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E5%A7%94%E5%93%A1%E6%9C%83%E7%B8%BD%E6%9C%83</t>
+  </si>
+  <si>
+    <t>葡语系奥林匹克委员会总会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
+  </si>
+  <si>
+    <t>葡语系运动会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AF%AD%E5%9B%BD%E5%AE%B6%E5%92%8C%E5%9C%B0%E5%8C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>葡萄牙语国家和地区列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>拉丁语联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
+  </si>
+  <si>
+    <t>意大利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%86%88</t>
+  </si>
+  <si>
+    <t>梵蒂冈</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
+  </si>
+  <si>
+    <t>圣马力诺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
+  </si>
+  <si>
+    <t>马尔他骑士团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>北美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>加泰罗尼亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>义大利语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>葡萄牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>罗马尼亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>虚拟国际规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>美国国会图书馆控制号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
+  </si>
+  <si>
+    <t>国际标准名称识别码</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
+  </si>
+  <si>
+    <t>瑞士历史辞典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>国立国会图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>塞内加尔国旗</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_塞内加尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94%E5%9B%BD%E5%BE%BD</t>
-  </si>
-  <si>
-    <t>塞内加尔国徽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A0%BC%E8%A8%80%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>国家格言列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>法语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
-  </si>
-  <si>
-    <t>國歌</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%B9%E8%B5%B7%E7%A7%91%E6%8B%89%E7%90%B4%EF%BC%8C%E6%95%B2%E8%B5%B7%E5%B7%B4%E6%8B%89%E9%A3%8E</t>
-  </si>
-  <si>
-    <t>弹起科拉琴，敲起巴拉风</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>國家面積列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
-  </si>
-  <si>
-    <t>首都</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%94%E5%96%80%E7%88%BE</t>
-  </si>
-  <si>
-    <t>達喀爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
-  </si>
-  <si>
-    <t>時區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC</t>
-  </si>
-  <si>
-    <t>UTC</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC%2B0</t>
-  </si>
-  <si>
-    <t>UTC+0</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>國家人口列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
-  </si>
-  <si>
-    <t>2016年</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>国家人口密度列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
-  </si>
-  <si>
-    <t>官方語言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>法語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
-  </si>
-  <si>
-    <t>官方文字</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
-  </si>
-  <si>
-    <t>政治體制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
-  </si>
-  <si>
-    <t>半總統制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
-  </si>
-  <si>
-    <t>國家元首</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>塞内加尔总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%9F%BA%C2%B7%E8%90%A8%E5%8B%92</t>
-  </si>
-  <si>
-    <t>麦基·萨勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
-  </si>
-  <si>
-    <t>政府首腦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94%E6%80%BB%E7%90%86</t>
-  </si>
-  <si>
-    <t>塞内加尔总理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
-  </si>
-  <si>
-    <t>國內生產總值</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
-  </si>
-  <si>
-    <t>購買力平價</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
-  </si>
-  <si>
-    <t>美元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
-  </si>
-  <si>
-    <t>人類發展指數</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2012%E5%B9%B4</t>
-  </si>
-  <si>
-    <t>2012年</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>中央銀行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9D%9E%E5%9C%8B%E5%AE%B6%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>西非國家中央銀行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9D%9E%E6%B3%95%E9%83%8E</t>
-  </si>
-  <si>
-    <t>西非法郎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
-  </si>
-  <si>
-    <t>ISO 3166-1</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
-  </si>
-  <si>
-    <t>國際域名縮寫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/.sn</t>
-  </si>
-  <si>
-    <t>.sn</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>國際電話區號列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9D%9E</t>
-  </si>
-  <si>
-    <t>西非</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>塞内加尔河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E5%96%80%E5%B0%94</t>
-  </si>
-  <si>
-    <t>达喀尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>大西洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C</t>
-  </si>
-  <si>
-    <t>马里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>几内亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A%E6%AF%94%E7%BB%8D</t>
-  </si>
-  <si>
-    <t>几内亚比绍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%88%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>冈比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92</t>
-  </si>
-  <si>
-    <t>佛得角</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>塞内加尔历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99</t>
-  </si>
-  <si>
-    <t>伊斯兰教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%96%AF%E6%9E%97</t>
-  </si>
-  <si>
-    <t>穆斯林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%9E%E8%A5%BF%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>法属西非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E8%81%94%E9%82%A6</t>
-  </si>
-  <si>
-    <t>马里联邦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%A5%A5%E6%B3%A2%E5%BE%B7%C2%B7%E5%A1%9E%E8%BE%BE%E5%B0%94%C2%B7%E6%A1%91%E6%88%88%E5%B0%94</t>
-  </si>
-  <si>
-    <t>利奥波德·塞达尔·桑戈尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%B2%A1%E6%AF%94%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>塞內岡比亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%96%A9%E8%8A%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>卡薩芒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8D%9C%E6%9D%9C%E6%8B%89%E8%80%B6%C2%B7%E7%93%A6%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>阿卜杜拉耶·瓦德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%8A%A0%E7%88%BE%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>塞內加爾地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%88%E6%AF%94%E4%BA%9A%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>冈比亚河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%96%A9%E8%8A%92%E6%96%AF%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>卡薩芒斯河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92%E5%8D%8A%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>佛得角半島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E4%B9%BE%E6%BF%95%E5%AD%A3%E6%B0%A3%E5%80%99</t>
-  </si>
-  <si>
-    <t>熱帶乾濕季氣候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%8A%A0%E7%88%BE%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
-  </si>
-  <si>
-    <t>塞內加爾行政區劃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>行政区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9C%81</t>
-  </si>
-  <si>
-    <t>省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF</t>
-  </si>
-  <si>
-    <t>县</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E5%96%80%E5%B0%94%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>达喀尔区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%85%E5%B0%94%E8%B4%9D%E5%8B%92%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>久尔贝勒区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%92%82%E5%85%8B%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>法蒂克区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%83%E6%8B%89%E5%85%8B%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>考拉克区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%88%BE%E9%81%94%E5%8D%80</t>
-  </si>
-  <si>
-    <t>科爾達區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%8A%A0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>盧加區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%A1%94%E5%A7%86%E5%8D%80</t>
-  </si>
-  <si>
-    <t>馬塔姆區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E5%8D%80</t>
-  </si>
-  <si>
-    <t>聖路易區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B7%B4%E6%98%86%E9%81%94%E5%8D%80</t>
-  </si>
-  <si>
-    <t>坦巴昆達區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E6%96%AF%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>捷斯区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%8E%E9%87%91%E7%BB%8D%E5%B0%94%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>济金绍尔区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%99%A2%E5%88%B6</t>
-  </si>
-  <si>
-    <t>一院制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A4%AB%E6%9E%97%E5%8D%80</t>
-  </si>
-  <si>
-    <t>卡夫林區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E7%94%9F</t>
-  </si>
-  <si>
-    <t>花生</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A3%89%E8%8A%B1</t>
-  </si>
-  <si>
-    <t>棉花</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A8%BB%E7%B1%B3</t>
-  </si>
-  <si>
-    <t>稻米</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A3%B7</t>
-  </si>
-  <si>
-    <t>磷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9D%9E%E5%9B%BD%E5%AE%B6%E7%BB%8F%E6%B5%8E%E5%85%B1%E5%90%8C%E4%BD%93</t>
-  </si>
-  <si>
-    <t>西非国家经济共同体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E6%B4%9B%E5%A4%AB%E6%97%8F</t>
-  </si>
-  <si>
-    <t>沃洛夫族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
-  </si>
-  <si>
-    <t>伊斯蘭教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E7%89%A9%E6%95%99</t>
-  </si>
-  <si>
-    <t>拜物教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
-  </si>
-  <si>
-    <t>羅馬天主教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/International_Monetary_Fund</t>
-  </si>
-  <si>
-    <t>International Monetary Fund</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:Africa</t>
-  </si>
-  <si>
-    <t>Template talk-Africa</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>北部非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>苏丹共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>突尼西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>西部非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
-  </si>
-  <si>
-    <t>贝宁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>布吉納法索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
-  </si>
-  <si>
-    <t>乍得</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
-  </si>
-  <si>
-    <t>科特迪瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>加纳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>幾內亞比索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>利比里亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
-  </si>
-  <si>
-    <t>尼日尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>奈及利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%88%A9%E6%98%82</t>
-  </si>
-  <si>
-    <t>塞拉利昂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
-  </si>
-  <si>
-    <t>多哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>中部非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
-  </si>
-  <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>中非共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>赤道几内亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%93%AC</t>
-  </si>
-  <si>
-    <t>加蓬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>刚果共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>刚果民主共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
-  </si>
-  <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南部非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
-  </si>
-  <si>
-    <t>安哥拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%9C%AD%E9%82%A3</t>
-  </si>
-  <si>
-    <t>波札那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
-  </si>
-  <si>
-    <t>葛摩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E7%B4%A2%E6%89%98</t>
-  </si>
-  <si>
-    <t>莱索托</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%BE%BE%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>马达加斯加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%8B%89%E7%BB%B4</t>
-  </si>
-  <si>
-    <t>马拉维</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B1%B3%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>纳米比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A8%81%E5%A3%AB%E5%85%B0</t>
-  </si>
-  <si>
-    <t>斯威士兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%9E%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>赞比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%A5%E5%B7%B4%E5%B8%83%E9%9F%A6</t>
-  </si>
-  <si>
-    <t>津巴布韦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>东部非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>蒲隆地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E6%8F%90</t>
-  </si>
-  <si>
-    <t>吉布提</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%AB%8B%E7%89%B9%E9%87%8C%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>厄立特里亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%9E%E4%BF%84%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>埃塞俄比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>肯尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%97%BA%E8%BE%BE</t>
-  </si>
-  <si>
-    <t>卢旺达</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%88%8C%E5%B0%94</t>
-  </si>
-  <si>
-    <t>塞舌尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C</t>
-  </si>
-  <si>
-    <t>索马里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>南蘇丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>坦桑尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B9%B2%E8%BE%BE</t>
-  </si>
-  <si>
-    <t>乌干达</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E8%A3%98%E6%96%AF</t>
-  </si>
-  <si>
-    <t>毛里裘斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>属地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>英屬印度洋領地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%82%A3%E5%88%A9%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>加那利群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E8%BE%BE</t>
-  </si>
-  <si>
-    <t>休达</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%88%A9%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>梅利利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89</t>
-  </si>
-  <si>
-    <t>馬德拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BA%A6%E7%89%B9</t>
-  </si>
-  <si>
-    <t>马约特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%95%99%E5%B0%BC%E6%B1%AA</t>
-  </si>
-  <si>
-    <t>留尼汪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B5%AB%E5%8B%92%E6%8B%BF</t>
-  </si>
-  <si>
-    <t>圣赫勒拿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C%E5%85%B0</t>
-  </si>
-  <si>
-    <t>索马里兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%92%92%E5%93%88%E6%8B%89</t>
-  </si>
-  <si>
-    <t>西撒哈拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%BD%97%E5%B7%B4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>欧罗巴岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%B4%9B%E9%87%8C%E5%8E%84%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>格洛里厄斯群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%83%A1%E5%AE%89%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>新胡安岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%BD%97%E5%A7%86%E5%85%B0%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>特罗姆兰岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%80%9F%E5%B0%94%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>亚速尔群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%94%BF%E5%8D%80%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>世界政區索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>亚洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南极洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>欧洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国首都列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>非洲聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%8D%97</t>
-  </si>
-  <si>
-    <t>貝南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A5%E9%9A%86</t>
-  </si>
-  <si>
-    <t>喀麥隆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%BE%B7%E8%A7%92</t>
-  </si>
-  <si>
-    <t>維德角</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>查德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>剛果民主共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>剛果共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E7%89%99%E6%B5%B7%E5%B2%B8</t>
-  </si>
-  <si>
-    <t>象牙海岸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>吉布地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%88%A9%E5%9E%82%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>厄利垂亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E5%8C%B9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>衣索匹亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>赤道幾內亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%BD%AD</t>
-  </si>
-  <si>
-    <t>加彭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%98%E6%AF%94%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>甘比亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%A6%E7%B4%8D</t>
-  </si>
-  <si>
-    <t>迦納</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>肯亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E7%B4%A2%E6%89%98</t>
-  </si>
-  <si>
-    <t>賴索托</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E6%AF%94%E7%91%9E%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>賴比瑞亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>利比亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%81%94%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>馬達加斯加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E5%A8%81</t>
-  </si>
-  <si>
-    <t>馬拉威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>马里共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E5%88%A9%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>毛利塔尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E9%87%8C%E8%A5%BF%E6%96%AF</t>
-  </si>
-  <si>
-    <t>模里西斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E4%B8%89%E6%AF%94%E5%85%8B</t>
-  </si>
-  <si>
-    <t>莫三比克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B1%B3%E6%AF%94%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>納米比亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5</t>
-  </si>
-  <si>
-    <t>尼日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%92%92%E6%8B%89%E5%A8%81%E9%98%BF%E6%8B%89%E4%BC%AF%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>撒拉威阿拉伯民主共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A4%9A%E7%BE%8E%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
-  </si>
-  <si>
-    <t>聖多美普林西比</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B8%AD%E7%88%BE</t>
-  </si>
-  <si>
-    <t>塞席爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>索馬利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>蘇丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E7%93%A6%E6%BF%9F%E8%98%AD</t>
-  </si>
-  <si>
-    <t>史瓦濟蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>坦桑尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B9%B2%E9%81%94</t>
-  </si>
-  <si>
-    <t>烏干達</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>尚比亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81</t>
-  </si>
-  <si>
-    <t>辛巴威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%BB%93%E7%9B%9F%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>不结盟运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
-  </si>
-  <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E8%BE%BE</t>
-  </si>
-  <si>
-    <t>安提瓜和巴布达</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>巴哈马</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
-  </si>
-  <si>
-    <t>巴林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>孟加拉国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E5%A4%9A%E6%96%AF</t>
-  </si>
-  <si>
-    <t>巴巴多斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
-  </si>
-  <si>
-    <t>伯利茲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>不丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
-  </si>
-  <si>
-    <t>汶萊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>布基纳法索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9A%86%E8%BF%AA</t>
-  </si>
-  <si>
-    <t>布隆迪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>朝鲜民主主义人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B</t>
-  </si>
-  <si>
-    <t>多米尼克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>多米尼加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>斐济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
-  </si>
-  <si>
-    <t>格林纳达</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9A%E9%82%A3</t>
-  </si>
-  <si>
-    <t>圭亚那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>牙买加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
-  </si>
-  <si>
-    <t>科威特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D</t>
-  </si>
-  <si>
-    <t>老挝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>马来西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E4%BB%A3%E5%A4%AB</t>
-  </si>
-  <si>
-    <t>马尔代夫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>蒙古国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E7%94%B8</t>
-  </si>
-  <si>
-    <t>缅甸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E5%B0%94</t>
-  </si>
-  <si>
-    <t>尼泊尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>阿曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>巴勒斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E6%96%B0%E5%87%A0%E5%86%85%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>巴布亚新几内亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
-  </si>
-  <si>
-    <t>卡塔尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
-  </si>
-  <si>
-    <t>聖克里斯多福與尼維斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>圣卢西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%96%87%E6%A3%AE%E7%89%B9%E5%92%8C%E6%A0%BC%E6%9E%97%E7%BA%B3%E4%B8%81%E6%96%AF</t>
-  </si>
-  <si>
-    <t>圣文森特和格林纳丁斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%98%BF%E6%8B%89%E4%BC%AF</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E5%85%B0%E5%8D%A1</t>
-  </si>
-  <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
-  </si>
-  <si>
-    <t>蘇利南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%AB%8B%E5%B0%BC%E8%BE%BE%E5%92%8C%E5%A4%9A%E5%B7%B4%E5%93%A5</t>
-  </si>
-  <si>
-    <t>特立尼达和多巴哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%93%E6%9B%BC%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>土库曼斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%94%E5%90%88%E9%85%8B%E9%95%BF%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>阿拉伯联合酋长国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%B9%E5%88%AB%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>乌兹别克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9B%BE</t>
-  </si>
-  <si>
-    <t>瓦努阿图</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
-  </si>
-  <si>
-    <t>委內瑞拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%97%A8</t>
-  </si>
-  <si>
-    <t>也门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>亞美尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
-  </si>
-  <si>
-    <t>波斯尼亚和黑塞哥维那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A</t>
-  </si>
-  <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%94%E5%90%89%E6%96%AF%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>吉尔吉斯斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
-  </si>
-  <si>
-    <t>蒙特內哥羅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>塔吉克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>非洲联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>阿拉伯国家联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>伊斯兰合作组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>联合国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%8E%B1</t>
-  </si>
-  <si>
-    <t>文莱</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>北賽普勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
-  </si>
-  <si>
-    <t>菲律賓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%B4%9B%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%99%A3%E7%B7%9A</t>
-  </si>
-  <si>
-    <t>莫洛民族解放陣線</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Parliamentary_Union_of_the_OIC_Member_States</t>
-  </si>
-  <si>
-    <t>en-Parliamentary Union of the OIC Member States</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Islamic_Conference_Youth_Forum_for_Dialogue_and_Cooperation</t>
-  </si>
-  <si>
-    <t>en-Islamic Conference Youth Forum for Dialogue and Cooperation</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
-  </si>
-  <si>
-    <t>法語圈國際組織</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>馬其頓共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%BA%B3%E5%93%A5</t>
-  </si>
-  <si>
-    <t>摩纳哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B</t>
-  </si>
-  <si>
-    <t>新不倫瑞克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B</t>
-  </si>
-  <si>
-    <t>魁北克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>羅馬尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6%E6%B3%95%E8%AF%AD%E7%A4%BE%E7%BE%A4</t>
-  </si>
-  <si>
-    <t>比利时法语社群</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>賽普勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>新喀里多尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>大韩民国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>格鲁吉亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
-  </si>
-  <si>
-    <t>科索沃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>拉脫維亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5</t>
-  </si>
-  <si>
-    <t>安大略</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>多明尼加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF%C2%B7%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF-%E5%8A%A0%E5%88%A9</t>
-  </si>
-  <si>
-    <t>布特羅斯·布特羅斯-加利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%84%E7%BE%8E%E6%A5%B7</t>
-  </si>
-  <si>
-    <t>庄美楷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD%E5%9B%BD%E5%AE%B6%E5%92%8C%E5%9C%B0%E5%8C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>法语国家和地区列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
-  </si>
-  <si>
-    <t>法語系運動會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%9B%BB%E8%A6%96%E5%9C%8B%E9%9A%9B%E4%BA%94%E5%8F%B0</t>
-  </si>
-  <si>
-    <t>法國電視國際五台</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AF%AD%E5%9B%BD%E5%AE%B6%E5%85%B1%E5%90%8C%E4%BD%93</t>
-  </si>
-  <si>
-    <t>葡萄牙语国家共同体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
-  </si>
-  <si>
-    <t>聖多美和普林西比</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%AA%9E%E7%B3%BB%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E5%A7%94%E5%93%A1%E6%9C%83%E7%B8%BD%E6%9C%83</t>
-  </si>
-  <si>
-    <t>葡語系奧林匹克委員會總會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
-  </si>
-  <si>
-    <t>葡語系運動會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AF%AD%E5%9B%BD%E5%AE%B6%E5%92%8C%E5%9C%B0%E5%8C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>葡萄牙语国家和地区列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>拉丁语联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%86%88</t>
-  </si>
-  <si>
-    <t>梵蒂冈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
-  </si>
-  <si>
-    <t>馬爾他騎士團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>玻利維亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD</t>
-  </si>
-  <si>
-    <t>烏拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>加泰羅尼亞語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>義大利語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>葡萄牙語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>西班牙語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>羅馬尼亞語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>虚拟国际规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>美国国会图书馆控制号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
-  </si>
-  <si>
-    <t>國際標準名稱識別碼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
-  </si>
-  <si>
-    <t>瑞士歷史辭典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>國立國會圖書館</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2586,7 +2544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I395"/>
+  <dimension ref="A1:I397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3188,7 +3146,7 @@
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
         <v>12</v>
@@ -3214,10 +3172,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
         <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>38</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -3243,10 +3201,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s">
         <v>39</v>
-      </c>
-      <c r="F23" t="s">
-        <v>40</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -3272,10 +3230,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s">
         <v>41</v>
-      </c>
-      <c r="F24" t="s">
-        <v>42</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -3301,10 +3259,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
         <v>43</v>
-      </c>
-      <c r="F25" t="s">
-        <v>44</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -3330,10 +3288,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
         <v>45</v>
-      </c>
-      <c r="F26" t="s">
-        <v>46</v>
       </c>
       <c r="G26" t="n">
         <v>6</v>
@@ -3359,10 +3317,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
         <v>47</v>
-      </c>
-      <c r="F27" t="s">
-        <v>48</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
@@ -3388,10 +3346,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" t="s">
         <v>49</v>
-      </c>
-      <c r="F28" t="s">
-        <v>50</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -3417,10 +3375,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" t="s">
         <v>51</v>
-      </c>
-      <c r="F29" t="s">
-        <v>52</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -3446,10 +3404,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" t="s">
         <v>53</v>
-      </c>
-      <c r="F30" t="s">
-        <v>54</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -3475,10 +3433,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s">
         <v>55</v>
-      </c>
-      <c r="F31" t="s">
-        <v>56</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -3504,10 +3462,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
         <v>57</v>
-      </c>
-      <c r="F32" t="s">
-        <v>58</v>
       </c>
       <c r="G32" t="n">
         <v>4</v>
@@ -3533,10 +3491,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
         <v>59</v>
-      </c>
-      <c r="F33" t="s">
-        <v>60</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3562,10 +3520,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
         <v>61</v>
-      </c>
-      <c r="F34" t="s">
-        <v>62</v>
       </c>
       <c r="G34" t="n">
         <v>3</v>
@@ -3591,10 +3549,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
         <v>63</v>
-      </c>
-      <c r="F35" t="s">
-        <v>64</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -3620,10 +3578,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" t="s">
         <v>65</v>
-      </c>
-      <c r="F36" t="s">
-        <v>66</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -3649,10 +3607,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
         <v>67</v>
-      </c>
-      <c r="F37" t="s">
-        <v>68</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3678,10 +3636,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" t="s">
         <v>69</v>
-      </c>
-      <c r="F38" t="s">
-        <v>70</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3707,10 +3665,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" t="s">
         <v>71</v>
-      </c>
-      <c r="F39" t="s">
-        <v>72</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3736,10 +3694,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" t="s">
         <v>73</v>
-      </c>
-      <c r="F40" t="s">
-        <v>74</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3765,10 +3723,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
         <v>75</v>
-      </c>
-      <c r="F41" t="s">
-        <v>76</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3794,10 +3752,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" t="s">
         <v>77</v>
-      </c>
-      <c r="F42" t="s">
-        <v>78</v>
       </c>
       <c r="G42" t="n">
         <v>9</v>
@@ -3823,10 +3781,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s">
         <v>79</v>
-      </c>
-      <c r="F43" t="s">
-        <v>80</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -3852,10 +3810,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F44" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
@@ -3881,10 +3839,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -3910,10 +3868,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G46" t="n">
         <v>5</v>
@@ -3939,10 +3897,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G47" t="n">
         <v>8</v>
@@ -3968,10 +3926,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G48" t="n">
         <v>13</v>
@@ -3997,10 +3955,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F49" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G49" t="n">
         <v>4</v>
@@ -4026,10 +3984,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G50" t="n">
         <v>7</v>
@@ -4055,10 +4013,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G51" t="n">
         <v>7</v>
@@ -4084,10 +4042,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4113,10 +4071,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4142,10 +4100,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -4171,10 +4129,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G55" t="n">
         <v>7</v>
@@ -4200,10 +4158,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4229,10 +4187,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4258,10 +4216,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F58" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -4287,10 +4245,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4316,10 +4274,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F60" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4345,10 +4303,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G61" t="n">
         <v>4</v>
@@ -4374,10 +4332,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -4403,10 +4361,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F63" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4432,10 +4390,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4461,10 +4419,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F65" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4490,10 +4448,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F66" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4519,10 +4477,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F67" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4548,10 +4506,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F68" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4577,10 +4535,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4606,10 +4564,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F70" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -4635,10 +4593,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F71" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4664,10 +4622,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F72" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4693,10 +4651,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4722,10 +4680,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4751,10 +4709,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F75" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4780,10 +4738,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F76" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4809,10 +4767,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F77" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4838,10 +4796,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F78" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4867,10 +4825,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F79" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4896,10 +4854,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F80" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4925,10 +4883,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F81" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4954,10 +4912,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F82" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4983,10 +4941,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F83" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5012,10 +4970,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5041,10 +4999,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -5070,10 +5028,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -5099,10 +5057,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5128,10 +5086,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -5157,10 +5115,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5186,10 +5144,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5215,10 +5173,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F91" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5244,10 +5202,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5273,10 +5231,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F93" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5302,10 +5260,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5331,10 +5289,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G95" t="n">
         <v>9</v>
@@ -5360,10 +5318,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F96" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G96" t="n">
         <v>18</v>
@@ -5389,10 +5347,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5418,10 +5376,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G98" t="n">
         <v>4</v>
@@ -5447,10 +5405,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G99" t="n">
         <v>5</v>
@@ -5476,10 +5434,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -5505,10 +5463,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G101" t="n">
         <v>6</v>
@@ -5534,10 +5492,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G102" t="n">
         <v>6</v>
@@ -5563,10 +5521,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -5592,10 +5550,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5621,10 +5579,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G105" t="n">
         <v>4</v>
@@ -5650,10 +5608,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G106" t="n">
         <v>4</v>
@@ -5679,10 +5637,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G107" t="n">
         <v>4</v>
@@ -5708,10 +5666,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G108" t="n">
         <v>5</v>
@@ -5737,10 +5695,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -5766,10 +5724,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F110" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G110" t="n">
         <v>7</v>
@@ -5795,10 +5753,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G111" t="n">
         <v>4</v>
@@ -5824,10 +5782,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -5853,10 +5811,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G113" t="n">
         <v>4</v>
@@ -5882,10 +5840,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -5911,10 +5869,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G115" t="n">
         <v>3</v>
@@ -5940,10 +5898,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G116" t="n">
         <v>5</v>
@@ -5969,10 +5927,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5998,10 +5956,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G118" t="n">
         <v>4</v>
@@ -6027,10 +5985,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G119" t="n">
         <v>5</v>
@@ -6056,10 +6014,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G120" t="n">
         <v>4</v>
@@ -6085,10 +6043,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G121" t="n">
         <v>4</v>
@@ -6114,10 +6072,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -6143,10 +6101,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6172,10 +6130,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G124" t="n">
         <v>4</v>
@@ -6201,10 +6159,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6230,10 +6188,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G126" t="n">
         <v>5</v>
@@ -6259,10 +6217,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -6288,10 +6246,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G128" t="n">
         <v>3</v>
@@ -6317,10 +6275,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -6346,10 +6304,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G130" t="n">
         <v>3</v>
@@ -6375,10 +6333,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -6404,10 +6362,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G132" t="n">
         <v>6</v>
@@ -6433,10 +6391,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G133" t="n">
         <v>3</v>
@@ -6462,10 +6420,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -6491,10 +6449,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -6520,10 +6478,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -6549,10 +6507,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -6578,10 +6536,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6607,10 +6565,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -6636,10 +6594,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G140" t="n">
         <v>4</v>
@@ -6665,10 +6623,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -6694,10 +6652,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6723,10 +6681,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -6752,10 +6710,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G144" t="n">
         <v>4</v>
@@ -6781,10 +6739,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G145" t="n">
         <v>3</v>
@@ -6810,10 +6768,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G146" t="n">
         <v>4</v>
@@ -6839,10 +6797,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6868,10 +6826,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -6897,10 +6855,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -6926,10 +6884,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G150" t="n">
         <v>3</v>
@@ -6955,10 +6913,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6984,10 +6942,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7013,10 +6971,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7042,10 +7000,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7071,10 +7029,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7100,10 +7058,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7129,10 +7087,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7158,10 +7116,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7187,10 +7145,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7216,10 +7174,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7245,10 +7203,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7274,10 +7232,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7303,10 +7261,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7332,10 +7290,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7361,10 +7319,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7390,10 +7348,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7419,10 +7377,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7448,10 +7406,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G168" t="n">
         <v>3</v>
@@ -7477,10 +7435,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F169" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -7506,10 +7464,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7535,10 +7493,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -7564,10 +7522,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7593,10 +7551,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7622,10 +7580,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7651,10 +7609,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7680,10 +7638,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F176" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7709,10 +7667,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F177" t="s">
-        <v>342</v>
+        <v>223</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7738,10 +7696,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F178" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7767,10 +7725,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F179" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -7796,10 +7754,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7825,10 +7783,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F181" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -7854,10 +7812,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>233</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7883,10 +7841,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>231</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7912,10 +7870,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7941,10 +7899,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7970,10 +7928,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F186" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7999,10 +7957,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F187" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8028,10 +7986,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F188" t="s">
-        <v>360</v>
+        <v>227</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8057,10 +8015,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8086,10 +8044,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8115,10 +8073,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F191" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8144,10 +8102,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8173,10 +8131,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8202,10 +8160,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F194" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8231,10 +8189,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F195" t="s">
-        <v>374</v>
+        <v>189</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8260,10 +8218,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F196" t="s">
-        <v>376</v>
+        <v>247</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8289,10 +8247,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8318,10 +8276,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -8347,10 +8305,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8376,10 +8334,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8405,10 +8363,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8434,10 +8392,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>253</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8463,10 +8421,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F203" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G203" t="n">
         <v>8</v>
@@ -8492,10 +8450,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F204" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8521,10 +8479,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="F205" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8550,10 +8508,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F206" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8579,10 +8537,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F207" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8608,10 +8566,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F208" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8637,10 +8595,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="F209" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8666,10 +8624,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F210" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8695,10 +8653,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="F211" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -8724,10 +8682,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="F212" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8753,10 +8711,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="F213" t="s">
-        <v>404</v>
+        <v>283</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8782,10 +8740,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F214" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -8811,10 +8769,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="F215" t="s">
-        <v>406</v>
+        <v>285</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8840,10 +8798,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="F216" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8869,10 +8827,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="F217" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8898,10 +8856,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="F218" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -8927,10 +8885,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="F219" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -8956,10 +8914,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="F220" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8985,10 +8943,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="F221" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -9014,10 +8972,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="F222" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9043,10 +9001,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="F223" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -9072,10 +9030,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="F224" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -9101,10 +9059,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F225" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9130,10 +9088,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F226" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9159,10 +9117,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F227" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9188,10 +9146,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="F228" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9217,10 +9175,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="F229" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9246,10 +9204,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="F230" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9275,10 +9233,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="F231" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9304,10 +9262,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="F232" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9333,10 +9291,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F233" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -9362,10 +9320,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F234" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -9391,10 +9349,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="F235" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -9420,10 +9378,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F236" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9449,10 +9407,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="F237" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -9478,10 +9436,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="F238" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9507,10 +9465,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F239" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G239" t="n">
         <v>5</v>
@@ -9536,10 +9494,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="F240" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -9565,10 +9523,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="F241" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9594,10 +9552,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="F242" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -9623,10 +9581,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="F243" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9652,10 +9610,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F244" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9681,10 +9639,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="F245" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -9710,10 +9668,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="F246" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9739,10 +9697,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="F247" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="G247" t="n">
         <v>3</v>
@@ -9768,10 +9726,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="F248" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -9797,10 +9755,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="F249" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="G249" t="n">
         <v>5</v>
@@ -9826,10 +9784,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F250" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -9855,10 +9813,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="F251" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -9884,10 +9842,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F252" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -9913,10 +9871,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F253" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9942,10 +9900,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F254" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -9971,10 +9929,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="F255" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -10000,10 +9958,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="F256" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -10029,10 +9987,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="F257" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="G257" t="n">
         <v>3</v>
@@ -10058,10 +10016,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="F258" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -10087,10 +10045,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F259" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -10116,10 +10074,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="F260" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10145,10 +10103,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="F261" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10174,10 +10132,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F262" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10203,10 +10161,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="F263" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -10232,10 +10190,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="F264" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -10261,10 +10219,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="F265" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -10290,10 +10248,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="F266" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -10319,10 +10277,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="F267" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -10348,10 +10306,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F268" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10377,10 +10335,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="F269" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -10406,10 +10364,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F270" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -10435,10 +10393,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="F271" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="G271" t="n">
         <v>3</v>
@@ -10464,10 +10422,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="F272" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10493,10 +10451,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="F273" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10522,10 +10480,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="F274" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10551,10 +10509,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="F275" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -10580,10 +10538,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="F276" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10609,10 +10567,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="F277" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10638,10 +10596,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="F278" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -10667,10 +10625,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="F279" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10696,10 +10654,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="F280" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="G280" t="n">
         <v>3</v>
@@ -10725,10 +10683,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="F281" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="G281" t="n">
         <v>3</v>
@@ -10754,10 +10712,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="F282" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10783,10 +10741,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="F283" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -10812,10 +10770,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="F284" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10841,10 +10799,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="F285" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -10870,10 +10828,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="F286" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -10899,10 +10857,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="F287" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -10928,10 +10886,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="F288" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -10957,10 +10915,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="F289" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -10986,10 +10944,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="F290" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="G290" t="n">
         <v>3</v>
@@ -11015,10 +10973,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="F291" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -11044,10 +11002,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="F292" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -11073,10 +11031,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="F293" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="G293" t="n">
         <v>3</v>
@@ -11102,10 +11060,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="F294" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -11131,10 +11089,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="F295" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="G295" t="n">
         <v>3</v>
@@ -11160,10 +11118,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="F296" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -11189,10 +11147,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="F297" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -11218,10 +11176,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="F298" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="G298" t="n">
         <v>2</v>
@@ -11247,10 +11205,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="F299" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -11276,10 +11234,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="F300" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="G300" t="n">
         <v>3</v>
@@ -11305,10 +11263,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="F301" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11334,10 +11292,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="F302" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -11363,10 +11321,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="F303" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -11392,10 +11350,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="F304" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -11421,10 +11379,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="F305" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -11450,10 +11408,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="F306" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -11479,10 +11437,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="F307" t="s">
-        <v>586</v>
+        <v>335</v>
       </c>
       <c r="G307" t="n">
         <v>3</v>
@@ -11508,10 +11466,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="F308" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11537,10 +11495,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="F309" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -11566,10 +11524,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="F310" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="G310" t="n">
         <v>2</v>
@@ -11595,10 +11553,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="F311" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11624,10 +11582,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="F312" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -11653,10 +11611,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="F313" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11682,10 +11640,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="F314" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11711,10 +11669,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="F315" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="G315" t="n">
         <v>3</v>
@@ -11740,10 +11698,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="F316" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="G316" t="n">
         <v>2</v>
@@ -11769,10 +11727,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="F317" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11798,10 +11756,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="F318" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="G318" t="n">
         <v>2</v>
@@ -11827,10 +11785,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="F319" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11856,10 +11814,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="F320" t="s">
-        <v>604</v>
+        <v>500</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11885,10 +11843,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="F321" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11914,10 +11872,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="F322" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11943,10 +11901,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="F323" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11972,10 +11930,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="F324" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12001,10 +11959,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="F325" t="s">
-        <v>586</v>
+        <v>335</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12030,10 +11988,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="F326" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="G326" t="n">
         <v>3</v>
@@ -12059,10 +12017,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="F327" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -12088,10 +12046,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="F328" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -12117,10 +12075,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="F329" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12146,10 +12104,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="F330" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12175,10 +12133,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F331" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12204,10 +12162,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F332" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12233,10 +12191,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="F333" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12262,10 +12220,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="F334" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12291,10 +12249,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="F335" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12320,10 +12278,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="F336" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="G336" t="n">
         <v>2</v>
@@ -12349,10 +12307,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="F337" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="G337" t="n">
         <v>2</v>
@@ -12378,10 +12336,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="F338" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12407,10 +12365,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="F339" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12436,10 +12394,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="F340" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="G340" t="n">
         <v>3</v>
@@ -12465,10 +12423,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="F341" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12494,10 +12452,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="F342" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12523,10 +12481,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="F343" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12552,10 +12510,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="F344" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12581,10 +12539,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="F345" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12610,10 +12568,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="F346" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12639,10 +12597,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="F347" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12668,10 +12626,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="F348" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12697,10 +12655,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="F349" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12726,10 +12684,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="F350" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="G350" t="n">
         <v>2</v>
@@ -12755,10 +12713,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="F351" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12784,10 +12742,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="F352" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12813,10 +12771,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="F353" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12842,10 +12800,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="F354" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12871,10 +12829,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="F355" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12900,10 +12858,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="F356" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12929,10 +12887,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="F357" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12958,10 +12916,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="F358" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12987,10 +12945,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="F359" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13016,10 +12974,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="F360" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="G360" t="n">
         <v>2</v>
@@ -13045,10 +13003,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="F361" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13074,10 +13032,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="F362" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13103,10 +13061,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="F363" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13132,10 +13090,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="F364" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13161,10 +13119,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="F365" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13190,10 +13148,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="F366" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13219,10 +13177,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="F367" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13248,10 +13206,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="F368" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="G368" t="n">
         <v>8</v>
@@ -13277,10 +13235,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="F369" t="s">
-        <v>688</v>
+        <v>235</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13306,10 +13264,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="F370" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13335,10 +13293,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
       <c r="F371" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13364,10 +13322,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="F372" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13393,10 +13351,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="F373" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13422,10 +13380,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="F374" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13451,10 +13409,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="F375" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="G375" t="n">
         <v>2</v>
@@ -13480,10 +13438,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="F376" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="G376" t="n">
         <v>2</v>
@@ -13509,10 +13467,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="F377" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13538,10 +13496,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="F378" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13567,10 +13525,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="F379" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13596,10 +13554,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="F380" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13625,10 +13583,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="F381" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13654,10 +13612,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="F382" t="s">
-        <v>714</v>
+        <v>422</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13683,10 +13641,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="F383" t="s">
-        <v>716</v>
+        <v>572</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13712,10 +13670,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="F384" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13741,10 +13699,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="F385" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13770,10 +13728,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="F386" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
       <c r="G386" t="n">
         <v>3</v>
@@ -13799,10 +13757,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="F387" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -13828,10 +13786,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="F388" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -13857,10 +13815,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
       <c r="F389" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="G389" t="n">
         <v>3</v>
@@ -13886,10 +13844,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="F390" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -13915,10 +13873,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="F391" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -13944,10 +13902,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="F392" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -13973,10 +13931,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="F393" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14002,10 +13960,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="F394" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14031,10 +13989,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>739</v>
+        <v>722</v>
       </c>
       <c r="F395" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14043,6 +14001,64 @@
         <v>4</v>
       </c>
       <c r="I395" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="s">
+        <v>0</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1</v>
+      </c>
+      <c r="D396" t="n">
+        <v>395</v>
+      </c>
+      <c r="E396" t="s">
+        <v>724</v>
+      </c>
+      <c r="F396" t="s">
+        <v>725</v>
+      </c>
+      <c r="G396" t="n">
+        <v>13</v>
+      </c>
+      <c r="H396" t="s">
+        <v>4</v>
+      </c>
+      <c r="I396" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="s">
+        <v>0</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1</v>
+      </c>
+      <c r="D397" t="n">
+        <v>396</v>
+      </c>
+      <c r="E397" t="s">
+        <v>724</v>
+      </c>
+      <c r="F397" t="s">
+        <v>726</v>
+      </c>
+      <c r="G397" t="n">
+        <v>1</v>
+      </c>
+      <c r="H397" t="s">
+        <v>4</v>
+      </c>
+      <c r="I397" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/塞内加尔_intext.xlsx
+++ b/xlsx/塞内加尔_intext.xlsx
@@ -29,7 +29,7 @@
     <t>塞内加尔国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_塞内加尔</t>
+    <t>体育运动_体育运动_伊朗_塞内加尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94%E5%9B%BD%E5%BE%BD</t>
